--- a/data/us/20-05-22 world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-05-22 world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{705B6497-A845-4F32-A17A-DE1C530FB739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DCB2767-9497-4232-8176-C6D67F885F2E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{705B6497-A845-4F32-A17A-DE1C530FB739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB664D77-FE80-4CAF-B637-896698607F7B}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="-20625" windowWidth="24885" windowHeight="16830" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="15435" yWindow="-20625" windowWidth="24885" windowHeight="16830" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -750,7 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4387,11 +4390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B5581-99F4-4752-AB5D-E061591DB7E6}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D56"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4456,2473 +4459,2473 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>13414</v>
-      </c>
-      <c r="C2" s="55">
-        <v>126</v>
-      </c>
+        <v>13571</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1">
-        <v>12865</v>
+        <v>12129</v>
       </c>
       <c r="G2" s="1">
-        <v>2736</v>
+        <v>12811</v>
       </c>
       <c r="H2" s="2">
-        <v>108</v>
+        <v>525</v>
       </c>
       <c r="I2" s="1">
-        <v>174591</v>
+        <v>123367</v>
       </c>
       <c r="J2" s="1">
-        <v>35608</v>
+        <v>116454</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="51">
         <f>IFERROR(B2/I2,0)</f>
-        <v>7.6830993579279569E-2</v>
+        <v>0.11000510671411318</v>
       </c>
       <c r="M2" s="52">
         <f>IFERROR(H2/G2,0)</f>
-        <v>3.9473684210526314E-2</v>
+        <v>4.0980407462337054E-2</v>
       </c>
       <c r="N2" s="50">
         <f>D2*250</f>
-        <v>132250</v>
+        <v>139000</v>
       </c>
       <c r="O2" s="53">
         <f>ABS(N2-B2)/B2</f>
-        <v>8.859102430296705</v>
+        <v>9.2424287082749981</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2">
-        <v>402</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2229</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2">
-        <v>550</v>
+        <v>838</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2925</v>
       </c>
       <c r="H3" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1">
-        <v>39545</v>
+        <v>61279</v>
       </c>
       <c r="J3" s="1">
-        <v>54057</v>
+        <v>80412</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="51">
         <f>IFERROR(B3/I3,0)</f>
-        <v>1.0165634087748135E-2</v>
+        <v>3.6374614468251763E-2</v>
       </c>
       <c r="M3" s="52">
         <f>IFERROR(H3/G3,0)</f>
-        <v>2.5454545454545455E-2</v>
+        <v>2.2905982905982905E-2</v>
       </c>
       <c r="N3" s="50">
         <f>D3*250</f>
-        <v>2500</v>
+        <v>12750</v>
       </c>
       <c r="O3" s="53">
         <f t="shared" ref="O3:O56" si="0">ABS(N3-B3)/B3</f>
-        <v>5.2189054726368163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>4.7200538358008073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>15315</v>
+        <v>366357</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>763</v>
+      <c r="D4" s="1">
+        <v>28885</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>14482</v>
+        <v>274341</v>
       </c>
       <c r="G4" s="1">
-        <v>2104</v>
-      </c>
-      <c r="H4" s="2">
-        <v>105</v>
+        <v>18832</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1485</v>
       </c>
       <c r="I4" s="1">
-        <v>237417</v>
+        <v>1557563</v>
       </c>
       <c r="J4" s="1">
-        <v>32618</v>
+        <v>80066</v>
       </c>
       <c r="K4" s="44"/>
       <c r="L4" s="51">
         <f>IFERROR(B4/I4,0)</f>
-        <v>6.4506753939271411E-2</v>
+        <v>0.2352116736209065</v>
       </c>
       <c r="M4" s="52">
         <f>IFERROR(H4/G4,0)</f>
-        <v>4.9904942965779471E-2</v>
+        <v>7.885514018691589E-2</v>
       </c>
       <c r="N4" s="50">
         <f>D4*250</f>
-        <v>190750</v>
+        <v>7221250</v>
       </c>
       <c r="O4" s="53">
         <f t="shared" si="0"/>
-        <v>11.455109369898793</v>
+        <v>18.71096498770325</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
-        <v>5458</v>
+        <v>6472</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1">
-        <v>1496</v>
+        <v>4137</v>
       </c>
       <c r="G5" s="1">
-        <v>1809</v>
+        <v>3087</v>
       </c>
       <c r="H5" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1">
-        <v>99276</v>
+        <v>152767</v>
       </c>
       <c r="J5" s="1">
-        <v>32897</v>
+        <v>72856</v>
       </c>
       <c r="K5" s="44"/>
       <c r="L5" s="51">
         <f>IFERROR(B5/I5,0)</f>
-        <v>5.4978041016962811E-2</v>
+        <v>4.2365170488390815E-2</v>
       </c>
       <c r="M5" s="52">
         <f>IFERROR(H5/G5,0)</f>
-        <v>1.9900497512437811E-2</v>
+        <v>4.5351473922902494E-2</v>
       </c>
       <c r="N5" s="50">
         <f>D5*250</f>
-        <v>27500</v>
+        <v>73500</v>
       </c>
       <c r="O5" s="53">
         <f t="shared" si="0"/>
-        <v>4.0384756320996704</v>
+        <v>10.356613102595798</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>88354</v>
-      </c>
-      <c r="C6" s="55">
-        <v>153</v>
-      </c>
+        <v>90084</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="1">
-        <v>3623</v>
-      </c>
-      <c r="E6" s="56">
-        <v>4</v>
-      </c>
+        <v>6148</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="1">
-        <v>68550</v>
+        <v>51387</v>
       </c>
       <c r="G6" s="1">
-        <v>2236</v>
+        <v>13070</v>
       </c>
       <c r="H6" s="2">
-        <v>92</v>
+        <v>892</v>
       </c>
       <c r="I6" s="1">
-        <v>1451754</v>
+        <v>501486</v>
       </c>
       <c r="J6" s="1">
-        <v>36742</v>
+        <v>72758</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="51">
         <f>IFERROR(B6/I6,0)</f>
-        <v>6.0860173280046066E-2</v>
+        <v>0.17963412737344611</v>
       </c>
       <c r="M6" s="52">
         <f>IFERROR(H6/G6,0)</f>
-        <v>4.1144901610017888E-2</v>
+        <v>6.8247895944912013E-2</v>
       </c>
       <c r="N6" s="50">
         <f>D6*250</f>
-        <v>905750</v>
+        <v>1537000</v>
       </c>
       <c r="O6" s="53">
         <f t="shared" si="0"/>
-        <v>9.2513751499649146</v>
+        <v>16.061853381288575</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
+      <c r="A7" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>23191</v>
+        <v>36504</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1">
-        <v>1310</v>
+        <v>2629</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1">
-        <v>20390</v>
+        <v>7626</v>
       </c>
       <c r="G7" s="1">
-        <v>4027</v>
+        <v>7852</v>
       </c>
       <c r="H7" s="2">
-        <v>227</v>
+        <v>566</v>
       </c>
       <c r="I7" s="1">
-        <v>139937</v>
+        <v>305381</v>
       </c>
       <c r="J7" s="1">
-        <v>24300</v>
-      </c>
-      <c r="K7" s="43"/>
+        <v>65690</v>
+      </c>
+      <c r="K7" s="44"/>
       <c r="L7" s="51">
         <f>IFERROR(B7/I7,0)</f>
-        <v>0.16572457605922666</v>
+        <v>0.11953592397693373</v>
       </c>
       <c r="M7" s="52">
         <f>IFERROR(H7/G7,0)</f>
-        <v>5.6369505835609637E-2</v>
+        <v>7.2083545593479362E-2</v>
       </c>
       <c r="N7" s="50">
         <f>D7*250</f>
-        <v>327500</v>
+        <v>657250</v>
       </c>
       <c r="O7" s="53">
         <f t="shared" si="0"/>
-        <v>13.121857617179078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>17.004876177953101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>39208</v>
+        <v>153441</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1">
-        <v>3582</v>
+        <v>10852</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1">
-        <v>29362</v>
+        <v>134045</v>
       </c>
       <c r="G8" s="1">
-        <v>10997</v>
+        <v>17275</v>
       </c>
       <c r="H8" s="1">
-        <v>1005</v>
+        <v>1222</v>
       </c>
       <c r="I8" s="1">
-        <v>202747</v>
+        <v>545487</v>
       </c>
       <c r="J8" s="1">
-        <v>56867</v>
-      </c>
-      <c r="K8" s="44"/>
+        <v>61414</v>
+      </c>
+      <c r="K8" s="43"/>
       <c r="L8" s="51">
         <f>IFERROR(B8/I8,0)</f>
-        <v>0.19338387251106059</v>
+        <v>0.28129176314009319</v>
       </c>
       <c r="M8" s="52">
         <f>IFERROR(H8/G8,0)</f>
-        <v>9.13885605165045E-2</v>
+        <v>7.0738060781476125E-2</v>
       </c>
       <c r="N8" s="50">
         <f>D8*250</f>
-        <v>895500</v>
+        <v>2713000</v>
       </c>
       <c r="O8" s="53">
         <f t="shared" si="0"/>
-        <v>21.839726586410936</v>
+        <v>16.681063079620181</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
-        <v>8386</v>
+        <v>7788</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
-        <v>3939</v>
+        <v>6315</v>
       </c>
       <c r="G9" s="1">
-        <v>8612</v>
+        <v>11035</v>
       </c>
       <c r="H9" s="2">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="I9" s="1">
-        <v>47542</v>
+        <v>41756</v>
       </c>
       <c r="J9" s="1">
-        <v>48823</v>
+        <v>59166</v>
       </c>
       <c r="K9" s="44"/>
       <c r="L9" s="51">
         <f>IFERROR(B9/I9,0)</f>
-        <v>0.17639140128728281</v>
+        <v>0.18651211801896733</v>
       </c>
       <c r="M9" s="52">
         <f>IFERROR(H9/G9,0)</f>
-        <v>3.785415699024617E-2</v>
+        <v>5.2922519256909835E-2</v>
       </c>
       <c r="N9" s="50">
         <f>D9*250</f>
-        <v>79250</v>
+        <v>103000</v>
       </c>
       <c r="O9" s="53">
         <f t="shared" si="0"/>
-        <v>8.4502742666348674</v>
+        <v>12.22547508988187</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>7788</v>
+        <v>7874</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>412</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
-        <v>6315</v>
+        <v>3186</v>
       </c>
       <c r="G10" s="1">
-        <v>11035</v>
+        <v>2456</v>
       </c>
       <c r="H10" s="2">
-        <v>584</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1">
-        <v>41756</v>
+        <v>182874</v>
       </c>
       <c r="J10" s="1">
-        <v>59166</v>
+        <v>57042</v>
       </c>
       <c r="K10" s="44"/>
       <c r="L10" s="51">
         <f>IFERROR(B10/I10,0)</f>
-        <v>0.18651211801896733</v>
+        <v>4.3056968185745378E-2</v>
       </c>
       <c r="M10" s="52">
         <f>IFERROR(H10/G10,0)</f>
-        <v>5.2922519256909835E-2</v>
+        <v>1.1807817589576547E-2</v>
       </c>
       <c r="N10" s="50">
         <f>D10*250</f>
-        <v>103000</v>
+        <v>23000</v>
       </c>
       <c r="O10" s="53">
         <f t="shared" si="0"/>
-        <v>12.22547508988187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>13</v>
+        <v>1.921005842011684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>48675</v>
+        <v>39208</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
-        <v>2145</v>
+        <v>3582</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1">
-        <v>38892</v>
+        <v>29362</v>
       </c>
       <c r="G11" s="1">
-        <v>2266</v>
-      </c>
-      <c r="H11" s="2">
-        <v>100</v>
+        <v>10997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1005</v>
       </c>
       <c r="I11" s="1">
-        <v>815584</v>
+        <v>202747</v>
       </c>
       <c r="J11" s="1">
-        <v>37973</v>
+        <v>56867</v>
       </c>
       <c r="K11" s="44"/>
       <c r="L11" s="51">
         <f>IFERROR(B11/I11,0)</f>
-        <v>5.9681160984031076E-2</v>
+        <v>0.19338387251106059</v>
       </c>
       <c r="M11" s="52">
         <f>IFERROR(H11/G11,0)</f>
-        <v>4.4130626654898503E-2</v>
+        <v>9.13885605165045E-2</v>
       </c>
       <c r="N11" s="50">
         <f>D11*250</f>
-        <v>536250</v>
+        <v>895500</v>
       </c>
       <c r="O11" s="53">
         <f t="shared" si="0"/>
-        <v>10.016949152542374</v>
+        <v>21.839726586410936</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>40663</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>402</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="1">
-        <v>1775</v>
+      <c r="D12" s="2">
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>38548</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3830</v>
+      <c r="F12" s="2">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2">
+        <v>550</v>
       </c>
       <c r="H12" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1">
-        <v>407748</v>
+        <v>39545</v>
       </c>
       <c r="J12" s="1">
-        <v>38404</v>
+        <v>54057</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="51">
         <f>IFERROR(B12/I12,0)</f>
-        <v>9.9725811040152254E-2</v>
+        <v>1.0165634087748135E-2</v>
       </c>
       <c r="M12" s="52">
         <f>IFERROR(H12/G12,0)</f>
-        <v>4.3603133159268927E-2</v>
+        <v>2.5454545454545455E-2</v>
       </c>
       <c r="N12" s="50">
         <f>D12*250</f>
-        <v>443750</v>
+        <v>2500</v>
       </c>
       <c r="O12" s="53">
         <f t="shared" si="0"/>
-        <v>9.9128691931239707</v>
+        <v>5.2189054726368163</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>102686</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>5</v>
+      <c r="D13" s="1">
+        <v>4607</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="1">
+        <v>97968</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8103</v>
+      </c>
+      <c r="H13" s="2">
+        <v>364</v>
+      </c>
       <c r="I13" s="1">
-        <v>4920</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>672020</v>
+      </c>
+      <c r="J13" s="1">
+        <v>53033</v>
+      </c>
       <c r="K13" s="44"/>
       <c r="L13" s="51">
         <f>IFERROR(B13/I13,0)</f>
-        <v>3.3536585365853661E-2</v>
+        <v>0.15280199994047797</v>
       </c>
       <c r="M13" s="52">
         <f>IFERROR(H13/G13,0)</f>
-        <v>0</v>
+        <v>4.492163396272985E-2</v>
       </c>
       <c r="N13" s="50">
         <f>D13*250</f>
-        <v>1250</v>
+        <v>1151750</v>
       </c>
       <c r="O13" s="53">
         <f t="shared" si="0"/>
-        <v>6.5757575757575761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.216232008258185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2">
-        <v>647</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18961</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>51</v>
-      </c>
-      <c r="G14" s="2">
-        <v>457</v>
+      <c r="F14" s="1">
+        <v>6865</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2776</v>
       </c>
       <c r="H14" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1">
-        <v>47149</v>
+        <v>360583</v>
       </c>
       <c r="J14" s="1">
-        <v>33300</v>
-      </c>
-      <c r="K14" s="43"/>
+        <v>52800</v>
+      </c>
+      <c r="K14" s="44"/>
       <c r="L14" s="51">
         <f>IFERROR(B14/I14,0)</f>
-        <v>1.3722454346857834E-2</v>
+        <v>5.2584287112814522E-2</v>
       </c>
       <c r="M14" s="52">
         <f>IFERROR(H14/G14,0)</f>
-        <v>2.6258205689277898E-2</v>
+        <v>1.6570605187319884E-2</v>
       </c>
       <c r="N14" s="50">
         <f>D14*250</f>
-        <v>4250</v>
+        <v>78250</v>
       </c>
       <c r="O14" s="53">
         <f t="shared" si="0"/>
-        <v>5.5687789799072647</v>
+        <v>3.1268920415589894</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
-        <v>2534</v>
+        <v>8386</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1">
-        <v>1078</v>
+        <v>3939</v>
       </c>
       <c r="G15" s="1">
-        <v>1418</v>
+        <v>8612</v>
       </c>
       <c r="H15" s="2">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="I15" s="1">
-        <v>39362</v>
+        <v>47542</v>
       </c>
       <c r="J15" s="1">
-        <v>22026</v>
+        <v>48823</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="51">
         <f>IFERROR(B15/I15,0)</f>
-        <v>6.4376810121436923E-2</v>
+        <v>0.17639140128728281</v>
       </c>
       <c r="M15" s="52">
         <f>IFERROR(H15/G15,0)</f>
-        <v>3.0324400564174896E-2</v>
+        <v>3.785415699024617E-2</v>
       </c>
       <c r="N15" s="50">
         <f>D15*250</f>
-        <v>19250</v>
+        <v>79250</v>
       </c>
       <c r="O15" s="53">
         <f t="shared" si="0"/>
-        <v>6.596685082872928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.4502742666348674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>102686</v>
+        <v>53510</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1">
-        <v>4607</v>
+        <v>5129</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1">
-        <v>97968</v>
+        <v>20147</v>
       </c>
       <c r="G16" s="1">
-        <v>8103</v>
+        <v>5358</v>
       </c>
       <c r="H16" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="I16" s="1">
-        <v>672020</v>
+        <v>471628</v>
       </c>
       <c r="J16" s="1">
-        <v>53033</v>
-      </c>
-      <c r="K16" s="44"/>
+        <v>47225</v>
+      </c>
+      <c r="K16" s="43"/>
       <c r="L16" s="51">
         <f>IFERROR(B16/I16,0)</f>
-        <v>0.15280199994047797</v>
+        <v>0.11345806440669341</v>
       </c>
       <c r="M16" s="52">
         <f>IFERROR(H16/G16,0)</f>
-        <v>4.492163396272985E-2</v>
+        <v>9.593131765584173E-2</v>
       </c>
       <c r="N16" s="50">
         <f>D16*250</f>
-        <v>1151750</v>
+        <v>1282250</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="0"/>
-        <v>10.216232008258185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22.962810689590732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
-        <v>29936</v>
+        <v>1603</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="1">
-        <v>1913</v>
+      <c r="D17" s="2">
+        <v>71</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="1">
-        <v>26154</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4447</v>
+      <c r="F17" s="2">
+        <v>555</v>
+      </c>
+      <c r="G17" s="2">
+        <v>894</v>
       </c>
       <c r="H17" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1">
-        <v>202995</v>
+        <v>84319</v>
       </c>
       <c r="J17" s="1">
-        <v>30153</v>
-      </c>
-      <c r="K17" s="44"/>
+        <v>47049</v>
+      </c>
+      <c r="K17" s="43"/>
       <c r="L17" s="51">
         <f>IFERROR(B17/I17,0)</f>
-        <v>0.1474716126012956</v>
+        <v>1.9011136280079222E-2</v>
       </c>
       <c r="M17" s="52">
         <f>IFERROR(H17/G17,0)</f>
-        <v>6.3863278614796487E-2</v>
+        <v>4.4742729306487698E-2</v>
       </c>
       <c r="N17" s="50">
         <f>D17*250</f>
-        <v>478250</v>
+        <v>17750</v>
       </c>
       <c r="O17" s="53">
         <f t="shared" si="0"/>
-        <v>14.975748262960984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.072988147223954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
-        <v>16307</v>
-      </c>
-      <c r="C18" s="55">
-        <v>137</v>
-      </c>
+        <v>3935</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>418</v>
-      </c>
-      <c r="E18" s="56">
-        <v>4</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="1">
-        <v>7121</v>
+        <v>1969</v>
       </c>
       <c r="G18" s="1">
-        <v>5169</v>
+        <v>2894</v>
       </c>
       <c r="H18" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I18" s="1">
-        <v>116829</v>
+        <v>62935</v>
       </c>
       <c r="J18" s="1">
-        <v>37029</v>
-      </c>
-      <c r="K18" s="43"/>
+        <v>46286</v>
+      </c>
+      <c r="K18" s="44"/>
       <c r="L18" s="51">
         <f>IFERROR(B18/I18,0)</f>
-        <v>0.13958007001686226</v>
+        <v>6.2524827202669414E-2</v>
       </c>
       <c r="M18" s="52">
         <f>IFERROR(H18/G18,0)</f>
-        <v>2.5536854323853744E-2</v>
+        <v>5.0449205252246027E-2</v>
       </c>
       <c r="N18" s="50">
         <f>D18*250</f>
-        <v>104500</v>
+        <v>49750</v>
       </c>
       <c r="O18" s="53">
         <f t="shared" si="0"/>
-        <v>5.4082909180106702</v>
+        <v>11.64294790343075</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>8673</v>
+        <v>12222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>204</v>
+        <v>580</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1">
-        <v>5614</v>
+        <v>3961</v>
       </c>
       <c r="G19" s="1">
-        <v>2977</v>
+        <v>4107</v>
       </c>
       <c r="H19" s="2">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="I19" s="1">
-        <v>71203</v>
+        <v>125970</v>
       </c>
       <c r="J19" s="1">
-        <v>24441</v>
+        <v>42327</v>
       </c>
       <c r="K19" s="43"/>
       <c r="L19" s="51">
         <f>IFERROR(B19/I19,0)</f>
-        <v>0.12180666544948948</v>
+        <v>9.7023100738271015E-2</v>
       </c>
       <c r="M19" s="52">
         <f>IFERROR(H19/G19,0)</f>
-        <v>2.3513604299630501E-2</v>
+        <v>4.7479912344777213E-2</v>
       </c>
       <c r="N19" s="50">
         <f>D19*250</f>
-        <v>51000</v>
+        <v>145000</v>
       </c>
       <c r="O19" s="53">
         <f t="shared" si="0"/>
-        <v>4.8803182289865097</v>
+        <v>10.863852070037638</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8286</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <v>950</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>386</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="1">
-        <v>4892</v>
+      <c r="F20" s="2">
+        <v>69</v>
       </c>
       <c r="G20" s="1">
-        <v>1855</v>
+        <v>1522</v>
       </c>
       <c r="H20" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" s="1">
-        <v>166240</v>
+        <v>25701</v>
       </c>
       <c r="J20" s="1">
-        <v>37210</v>
+        <v>41188</v>
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="51">
         <f>IFERROR(B20/I20,0)</f>
-        <v>4.9843599615014438E-2</v>
+        <v>3.6963542274619662E-2</v>
       </c>
       <c r="M20" s="52">
         <f>IFERROR(H20/G20,0)</f>
-        <v>4.6361185983827491E-2</v>
+        <v>5.7161629434954009E-2</v>
       </c>
       <c r="N20" s="50">
         <f>D20*250</f>
-        <v>96500</v>
+        <v>13500</v>
       </c>
       <c r="O20" s="53">
         <f t="shared" si="0"/>
-        <v>10.646150132754043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
-        <v>14</v>
+        <v>13.210526315789474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="1">
-        <v>36504</v>
+        <v>11425</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="1">
-        <v>2629</v>
+      <c r="D21" s="2">
+        <v>143</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1">
-        <v>7626</v>
+        <v>10933</v>
       </c>
       <c r="G21" s="1">
-        <v>7852</v>
+        <v>5906</v>
       </c>
       <c r="H21" s="2">
-        <v>566</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1">
-        <v>305381</v>
+        <v>78654</v>
       </c>
       <c r="J21" s="1">
-        <v>65690</v>
+        <v>40661</v>
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="51">
         <f>IFERROR(B21/I21,0)</f>
-        <v>0.11953592397693373</v>
+        <v>0.14525643959620615</v>
       </c>
       <c r="M21" s="52">
         <f>IFERROR(H21/G21,0)</f>
-        <v>7.2083545593479362E-2</v>
+        <v>1.2529630883846935E-2</v>
       </c>
       <c r="N21" s="50">
         <f>D21*250</f>
-        <v>657250</v>
+        <v>35750</v>
       </c>
       <c r="O21" s="53">
         <f t="shared" si="0"/>
-        <v>17.004876177953101</v>
+        <v>2.1291028446389495</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
+      <c r="A22" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="1">
-        <v>1877</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>73</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>694</v>
+        <v>20041</v>
+      </c>
+      <c r="C22" s="55">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1075</v>
+      </c>
+      <c r="E22" s="56">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13679</v>
       </c>
       <c r="G22" s="1">
-        <v>1396</v>
+        <v>2632</v>
       </c>
       <c r="H22" s="2">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="I22" s="1">
-        <v>40609</v>
+        <v>298751</v>
       </c>
       <c r="J22" s="1">
-        <v>30210</v>
-      </c>
-      <c r="K22" s="43"/>
+        <v>39232</v>
+      </c>
+      <c r="K22" s="44"/>
       <c r="L22" s="51">
         <f>IFERROR(B22/I22,0)</f>
-        <v>4.6221280996823363E-2</v>
+        <v>6.7082620643947641E-2</v>
       </c>
       <c r="M22" s="52">
         <f>IFERROR(H22/G22,0)</f>
-        <v>3.8681948424068767E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="N22" s="50">
         <f>D22*250</f>
-        <v>18250</v>
+        <v>268750</v>
       </c>
       <c r="O22" s="53">
         <f t="shared" si="0"/>
-        <v>8.722962173681406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12.410009480564842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>43531</v>
+        <v>40663</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
-        <v>2159</v>
+        <v>1775</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1">
-        <v>38566</v>
+        <v>38548</v>
       </c>
       <c r="G23" s="1">
-        <v>7200</v>
+        <v>3830</v>
       </c>
       <c r="H23" s="2">
-        <v>357</v>
+        <v>167</v>
       </c>
       <c r="I23" s="1">
-        <v>220233</v>
+        <v>407748</v>
       </c>
       <c r="J23" s="1">
-        <v>36428</v>
-      </c>
-      <c r="K23" s="43"/>
+        <v>38404</v>
+      </c>
+      <c r="K23" s="44"/>
       <c r="L23" s="51">
         <f>IFERROR(B23/I23,0)</f>
-        <v>0.19765884313431684</v>
+        <v>9.9725811040152254E-2</v>
       </c>
       <c r="M23" s="52">
         <f>IFERROR(H23/G23,0)</f>
-        <v>4.9583333333333333E-2</v>
+        <v>4.3603133159268927E-2</v>
       </c>
       <c r="N23" s="50">
         <f>D23*250</f>
-        <v>539750</v>
+        <v>443750</v>
       </c>
       <c r="O23" s="53">
         <f t="shared" si="0"/>
-        <v>11.399209758562863</v>
+        <v>9.9128691931239707</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>90084</v>
+        <v>48675</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
-        <v>6148</v>
+        <v>2145</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1">
-        <v>51387</v>
+        <v>38892</v>
       </c>
       <c r="G24" s="1">
-        <v>13070</v>
+        <v>2266</v>
       </c>
       <c r="H24" s="2">
-        <v>892</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>501486</v>
+        <v>815584</v>
       </c>
       <c r="J24" s="1">
-        <v>72758</v>
+        <v>37973</v>
       </c>
       <c r="K24" s="44"/>
       <c r="L24" s="51">
         <f>IFERROR(B24/I24,0)</f>
-        <v>0.17963412737344611</v>
+        <v>5.9681160984031076E-2</v>
       </c>
       <c r="M24" s="52">
         <f>IFERROR(H24/G24,0)</f>
-        <v>6.8247895944912013E-2</v>
+        <v>4.4130626654898503E-2</v>
       </c>
       <c r="N24" s="50">
         <f>D24*250</f>
-        <v>1537000</v>
+        <v>536250</v>
       </c>
       <c r="O24" s="53">
         <f t="shared" si="0"/>
-        <v>16.061853381288575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.016949152542374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
-        <v>53510</v>
+        <v>5680</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="1">
-        <v>5129</v>
+      <c r="D25" s="2">
+        <v>304</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1">
-        <v>20147</v>
+        <v>1015</v>
       </c>
       <c r="G25" s="1">
-        <v>5358</v>
+        <v>1435</v>
       </c>
       <c r="H25" s="2">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1">
-        <v>471628</v>
+        <v>149595</v>
       </c>
       <c r="J25" s="1">
-        <v>47225</v>
-      </c>
-      <c r="K25" s="43"/>
+        <v>37805</v>
+      </c>
+      <c r="K25" s="44"/>
       <c r="L25" s="51">
         <f>IFERROR(B25/I25,0)</f>
-        <v>0.11345806440669341</v>
+        <v>3.7969183462014104E-2</v>
       </c>
       <c r="M25" s="52">
         <f>IFERROR(H25/G25,0)</f>
-        <v>9.593131765584173E-2</v>
+        <v>5.3658536585365853E-2</v>
       </c>
       <c r="N25" s="50">
         <f>D25*250</f>
-        <v>1282250</v>
+        <v>76000</v>
       </c>
       <c r="O25" s="53">
         <f t="shared" si="0"/>
-        <v>22.962810689590732</v>
+        <v>12.380281690140846</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>18200</v>
+        <v>8286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>818</v>
+        <v>386</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="G26" s="1">
-        <v>3227</v>
+        <v>1855</v>
       </c>
       <c r="H26" s="2">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="I26" s="1">
-        <v>173556</v>
+        <v>166240</v>
       </c>
       <c r="J26" s="1">
-        <v>30774</v>
+        <v>37210</v>
       </c>
       <c r="K26" s="43"/>
       <c r="L26" s="51">
         <f>IFERROR(B26/I26,0)</f>
-        <v>0.10486528843716149</v>
+        <v>4.9843599615014438E-2</v>
       </c>
       <c r="M26" s="52">
         <f>IFERROR(H26/G26,0)</f>
-        <v>4.4933374651378991E-2</v>
+        <v>4.6361185983827491E-2</v>
       </c>
       <c r="N26" s="50">
         <f>D26*250</f>
-        <v>204500</v>
+        <v>96500</v>
       </c>
       <c r="O26" s="53">
         <f t="shared" si="0"/>
-        <v>10.236263736263735</v>
+        <v>10.646150132754043</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
-        <v>12222</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>16307</v>
+      </c>
+      <c r="C27" s="55">
+        <v>137</v>
+      </c>
       <c r="D27" s="2">
-        <v>580</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="E27" s="56">
+        <v>4</v>
+      </c>
       <c r="F27" s="1">
-        <v>3961</v>
+        <v>7121</v>
       </c>
       <c r="G27" s="1">
-        <v>4107</v>
+        <v>5169</v>
       </c>
       <c r="H27" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="I27" s="1">
-        <v>125970</v>
+        <v>116829</v>
       </c>
       <c r="J27" s="1">
-        <v>42327</v>
+        <v>37029</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="51">
         <f>IFERROR(B27/I27,0)</f>
-        <v>9.7023100738271015E-2</v>
+        <v>0.13958007001686226</v>
       </c>
       <c r="M27" s="52">
         <f>IFERROR(H27/G27,0)</f>
-        <v>4.7479912344777213E-2</v>
+        <v>2.5536854323853744E-2</v>
       </c>
       <c r="N27" s="50">
         <f>D27*250</f>
-        <v>145000</v>
+        <v>104500</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="0"/>
-        <v>10.863852070037638</v>
+        <v>5.4082909180106702</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
+      <c r="A28" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>11655</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>672</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>88354</v>
+      </c>
+      <c r="C28" s="55">
+        <v>153</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3623</v>
+      </c>
+      <c r="E28" s="56">
+        <v>4</v>
+      </c>
       <c r="F28" s="1">
-        <v>8018</v>
+        <v>68550</v>
       </c>
       <c r="G28" s="1">
-        <v>1899</v>
+        <v>2236</v>
       </c>
       <c r="H28" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I28" s="1">
-        <v>161984</v>
+        <v>1451754</v>
       </c>
       <c r="J28" s="1">
-        <v>26393</v>
-      </c>
-      <c r="K28" s="43"/>
+        <v>36742</v>
+      </c>
+      <c r="K28" s="44"/>
       <c r="L28" s="51">
         <f>IFERROR(B28/I28,0)</f>
-        <v>7.195155077044646E-2</v>
+        <v>6.0860173280046066E-2</v>
       </c>
       <c r="M28" s="52">
         <f>IFERROR(H28/G28,0)</f>
-        <v>5.7398630858346497E-2</v>
+        <v>4.1144901610017888E-2</v>
       </c>
       <c r="N28" s="50">
         <f>D28*250</f>
-        <v>168000</v>
+        <v>905750</v>
       </c>
       <c r="O28" s="53">
         <f t="shared" si="0"/>
-        <v>13.414414414414415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.2513751499649146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2">
-        <v>479</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43531</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>16</v>
+      <c r="D29" s="1">
+        <v>2159</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>23</v>
-      </c>
-      <c r="G29" s="2">
-        <v>448</v>
+      <c r="F29" s="1">
+        <v>38566</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7200</v>
       </c>
       <c r="H29" s="2">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="I29" s="1">
-        <v>30524</v>
+        <v>220233</v>
       </c>
       <c r="J29" s="1">
-        <v>28560</v>
-      </c>
-      <c r="K29" s="44"/>
+        <v>36428</v>
+      </c>
+      <c r="K29" s="43"/>
       <c r="L29" s="51">
         <f>IFERROR(B29/I29,0)</f>
-        <v>1.569256978115581E-2</v>
+        <v>0.19765884313431684</v>
       </c>
       <c r="M29" s="52">
         <f>IFERROR(H29/G29,0)</f>
-        <v>3.3482142857142856E-2</v>
+        <v>4.9583333333333333E-2</v>
       </c>
       <c r="N29" s="50">
         <f>D29*250</f>
-        <v>4000</v>
+        <v>539750</v>
       </c>
       <c r="O29" s="53">
         <f t="shared" si="0"/>
-        <v>7.3507306889352817</v>
+        <v>11.399209758562863</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>11425</v>
+        <v>7255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1">
-        <v>10933</v>
+        <v>1835</v>
       </c>
       <c r="G30" s="1">
-        <v>5906</v>
+        <v>2355</v>
       </c>
       <c r="H30" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I30" s="1">
-        <v>78654</v>
+        <v>111323</v>
       </c>
       <c r="J30" s="1">
-        <v>40661</v>
+        <v>36142</v>
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="51">
         <f>IFERROR(B30/I30,0)</f>
-        <v>0.14525643959620615</v>
+        <v>6.5170719438031668E-2</v>
       </c>
       <c r="M30" s="52">
         <f>IFERROR(H30/G30,0)</f>
-        <v>1.2529630883846935E-2</v>
+        <v>5.2653927813163484E-2</v>
       </c>
       <c r="N30" s="50">
         <f>D30*250</f>
-        <v>35750</v>
+        <v>95250</v>
       </c>
       <c r="O30" s="53">
         <f t="shared" si="0"/>
-        <v>2.1291028446389495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12.128876636802206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>7255</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>13414</v>
+      </c>
+      <c r="C31" s="55">
+        <v>126</v>
+      </c>
       <c r="D31" s="2">
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1">
-        <v>1835</v>
+        <v>12865</v>
       </c>
       <c r="G31" s="1">
-        <v>2355</v>
+        <v>2736</v>
       </c>
       <c r="H31" s="2">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="I31" s="1">
-        <v>111323</v>
+        <v>174591</v>
       </c>
       <c r="J31" s="1">
-        <v>36142</v>
-      </c>
-      <c r="K31" s="44"/>
+        <v>35608</v>
+      </c>
+      <c r="K31" s="43"/>
       <c r="L31" s="51">
         <f>IFERROR(B31/I31,0)</f>
-        <v>6.5170719438031668E-2</v>
+        <v>7.6830993579279569E-2</v>
       </c>
       <c r="M31" s="52">
         <f>IFERROR(H31/G31,0)</f>
-        <v>5.2653927813163484E-2</v>
+        <v>3.9473684210526314E-2</v>
       </c>
       <c r="N31" s="50">
         <f>D31*250</f>
-        <v>95250</v>
+        <v>132250</v>
       </c>
       <c r="O31" s="53">
         <f t="shared" si="0"/>
-        <v>12.128876636802206</v>
+        <v>8.859102430296705</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
-        <v>3935</v>
+        <v>4250</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1">
-        <v>1969</v>
+        <v>1057</v>
       </c>
       <c r="G32" s="1">
-        <v>2894</v>
+        <v>4804</v>
       </c>
       <c r="H32" s="2">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I32" s="1">
-        <v>62935</v>
+        <v>31301</v>
       </c>
       <c r="J32" s="1">
-        <v>46286</v>
+        <v>35382</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="51">
         <f>IFERROR(B32/I32,0)</f>
-        <v>6.2524827202669414E-2</v>
+        <v>0.13577840963547491</v>
       </c>
       <c r="M32" s="52">
         <f>IFERROR(H32/G32,0)</f>
-        <v>5.0449205252246027E-2</v>
+        <v>1.1240632805995004E-2</v>
       </c>
       <c r="N32" s="50">
         <f>D32*250</f>
-        <v>49750</v>
+        <v>12000</v>
       </c>
       <c r="O32" s="53">
         <f t="shared" si="0"/>
-        <v>11.64294790343075</v>
+        <v>1.8235294117647058</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1">
-        <v>153441</v>
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <v>647</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="1">
-        <v>10852</v>
+      <c r="D33" s="2">
+        <v>17</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="1">
-        <v>134045</v>
-      </c>
-      <c r="G33" s="1">
-        <v>17275</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1222</v>
+      <c r="F33" s="2">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2">
+        <v>457</v>
+      </c>
+      <c r="H33" s="2">
+        <v>12</v>
       </c>
       <c r="I33" s="1">
-        <v>545487</v>
+        <v>47149</v>
       </c>
       <c r="J33" s="1">
-        <v>61414</v>
+        <v>33300</v>
       </c>
       <c r="K33" s="43"/>
       <c r="L33" s="51">
         <f>IFERROR(B33/I33,0)</f>
-        <v>0.28129176314009319</v>
+        <v>1.3722454346857834E-2</v>
       </c>
       <c r="M33" s="52">
         <f>IFERROR(H33/G33,0)</f>
-        <v>7.0738060781476125E-2</v>
+        <v>2.6258205689277898E-2</v>
       </c>
       <c r="N33" s="50">
         <f>D33*250</f>
-        <v>2713000</v>
+        <v>4250</v>
       </c>
       <c r="O33" s="53">
         <f t="shared" si="0"/>
-        <v>16.681063079620181</v>
+        <v>5.5687789799072647</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>6472</v>
+        <v>5458</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1">
-        <v>4137</v>
+        <v>1496</v>
       </c>
       <c r="G34" s="1">
-        <v>3087</v>
+        <v>1809</v>
       </c>
       <c r="H34" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="I34" s="1">
-        <v>152767</v>
+        <v>99276</v>
       </c>
       <c r="J34" s="1">
-        <v>72856</v>
+        <v>32897</v>
       </c>
       <c r="K34" s="44"/>
       <c r="L34" s="51">
         <f>IFERROR(B34/I34,0)</f>
-        <v>4.2365170488390815E-2</v>
+        <v>5.4978041016962811E-2</v>
       </c>
       <c r="M34" s="52">
         <f>IFERROR(H34/G34,0)</f>
-        <v>4.5351473922902494E-2</v>
+        <v>1.9900497512437811E-2</v>
       </c>
       <c r="N34" s="50">
         <f>D34*250</f>
-        <v>73500</v>
+        <v>27500</v>
       </c>
       <c r="O34" s="53">
         <f t="shared" si="0"/>
-        <v>10.356613102595798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
-        <v>7</v>
+        <v>4.0384756320996704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>366357</v>
+        <v>15315</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>28885</v>
+      <c r="D35" s="2">
+        <v>763</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1">
-        <v>274341</v>
+        <v>14482</v>
       </c>
       <c r="G35" s="1">
-        <v>18832</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1485</v>
+        <v>2104</v>
+      </c>
+      <c r="H35" s="2">
+        <v>105</v>
       </c>
       <c r="I35" s="1">
-        <v>1557563</v>
+        <v>237417</v>
       </c>
       <c r="J35" s="1">
-        <v>80066</v>
+        <v>32618</v>
       </c>
       <c r="K35" s="44"/>
       <c r="L35" s="51">
         <f>IFERROR(B35/I35,0)</f>
-        <v>0.2352116736209065</v>
+        <v>6.4506753939271411E-2</v>
       </c>
       <c r="M35" s="52">
         <f>IFERROR(H35/G35,0)</f>
-        <v>7.885514018691589E-2</v>
+        <v>4.9904942965779471E-2</v>
       </c>
       <c r="N35" s="50">
         <f>D35*250</f>
-        <v>7221250</v>
+        <v>190750</v>
       </c>
       <c r="O35" s="53">
         <f t="shared" si="0"/>
-        <v>18.71096498770325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11.455109369898793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
-        <v>21220</v>
+        <v>55</v>
+      </c>
+      <c r="B36" s="2">
+        <v>801</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>745</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="1">
-        <v>8838</v>
+      <c r="F36" s="2">
+        <v>243</v>
       </c>
       <c r="G36" s="1">
-        <v>2023</v>
+        <v>1384</v>
       </c>
       <c r="H36" s="2">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1">
-        <v>290645</v>
+        <v>18840</v>
       </c>
       <c r="J36" s="1">
-        <v>27712</v>
-      </c>
-      <c r="K36" s="44"/>
+        <v>32552</v>
+      </c>
+      <c r="K36" s="59"/>
       <c r="L36" s="51">
         <f>IFERROR(B36/I36,0)</f>
-        <v>7.3010029417330424E-2</v>
+        <v>4.2515923566878978E-2</v>
       </c>
       <c r="M36" s="52">
         <f>IFERROR(H36/G36,0)</f>
-        <v>3.5096391497775582E-2</v>
+        <v>1.5173410404624277E-2</v>
       </c>
       <c r="N36" s="50">
         <f>D36*250</f>
-        <v>186250</v>
+        <v>3000</v>
       </c>
       <c r="O36" s="53">
         <f t="shared" si="0"/>
-        <v>7.7770970782280866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.7453183520599249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1">
-        <v>2229</v>
+        <v>18200</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>51</v>
+        <v>818</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>838</v>
+      <c r="F37" s="1">
+        <v>4894</v>
       </c>
       <c r="G37" s="1">
-        <v>2925</v>
+        <v>3227</v>
       </c>
       <c r="H37" s="2">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="I37" s="1">
-        <v>61279</v>
+        <v>173556</v>
       </c>
       <c r="J37" s="1">
-        <v>80412</v>
-      </c>
-      <c r="K37" s="44"/>
+        <v>30774</v>
+      </c>
+      <c r="K37" s="43"/>
       <c r="L37" s="51">
         <f>IFERROR(B37/I37,0)</f>
-        <v>3.6374614468251763E-2</v>
+        <v>0.10486528843716149</v>
       </c>
       <c r="M37" s="52">
         <f>IFERROR(H37/G37,0)</f>
-        <v>2.2905982905982905E-2</v>
+        <v>4.4933374651378991E-2</v>
       </c>
       <c r="N37" s="50">
         <f>D37*250</f>
-        <v>12750</v>
+        <v>204500</v>
       </c>
       <c r="O37" s="53">
         <f t="shared" si="0"/>
-        <v>4.7200538358008073</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.236263736263735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
         <v>22</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13885</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>487</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="F38" s="1">
+        <v>5670</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2385</v>
+      </c>
+      <c r="H38" s="2">
+        <v>84</v>
+      </c>
       <c r="I38" s="1">
-        <v>3817</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="8"/>
+        <v>177123</v>
+      </c>
+      <c r="J38" s="1">
+        <v>30421</v>
+      </c>
+      <c r="K38" s="44"/>
       <c r="L38" s="51">
         <f>IFERROR(B38/I38,0)</f>
-        <v>5.763688760806916E-3</v>
+        <v>7.8391851989860151E-2</v>
       </c>
       <c r="M38" s="52">
         <f>IFERROR(H38/G38,0)</f>
-        <v>0</v>
+        <v>3.5220125786163521E-2</v>
       </c>
       <c r="N38" s="50">
         <f>D38*250</f>
-        <v>500</v>
+        <v>121750</v>
       </c>
       <c r="O38" s="53">
         <f t="shared" si="0"/>
-        <v>21.727272727272727</v>
+        <v>7.7684551674468851</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46" t="s">
-        <v>21</v>
+      <c r="A39" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>30212</v>
+        <v>1877</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="1">
-        <v>1840</v>
+      <c r="D39" s="2">
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>23409</v>
+      <c r="F39" s="2">
+        <v>694</v>
       </c>
       <c r="G39" s="1">
-        <v>2585</v>
+        <v>1396</v>
       </c>
       <c r="H39" s="2">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="I39" s="1">
-        <v>309564</v>
+        <v>40609</v>
       </c>
       <c r="J39" s="1">
-        <v>26483</v>
-      </c>
-      <c r="K39" s="44"/>
+        <v>30210</v>
+      </c>
+      <c r="K39" s="43"/>
       <c r="L39" s="51">
         <f>IFERROR(B39/I39,0)</f>
-        <v>9.7595327622074915E-2</v>
+        <v>4.6221280996823363E-2</v>
       </c>
       <c r="M39" s="52">
         <f>IFERROR(H39/G39,0)</f>
-        <v>6.0735009671179882E-2</v>
+        <v>3.8681948424068767E-2</v>
       </c>
       <c r="N39" s="50">
         <f>D39*250</f>
-        <v>460000</v>
+        <v>18250</v>
       </c>
       <c r="O39" s="53">
         <f t="shared" si="0"/>
-        <v>14.225738117304383</v>
+        <v>8.722962173681406</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
-        <v>5680</v>
+        <v>29936</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>304</v>
+      <c r="D40" s="1">
+        <v>1913</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1">
-        <v>1015</v>
+        <v>26154</v>
       </c>
       <c r="G40" s="1">
-        <v>1435</v>
+        <v>4447</v>
       </c>
       <c r="H40" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="I40" s="1">
-        <v>149595</v>
+        <v>202995</v>
       </c>
       <c r="J40" s="1">
-        <v>37805</v>
+        <v>30153</v>
       </c>
       <c r="K40" s="44"/>
       <c r="L40" s="51">
         <f>IFERROR(B40/I40,0)</f>
-        <v>3.7969183462014104E-2</v>
+        <v>0.1474716126012956</v>
       </c>
       <c r="M40" s="52">
         <f>IFERROR(H40/G40,0)</f>
-        <v>5.3658536585365853E-2</v>
+        <v>6.3863278614796487E-2</v>
       </c>
       <c r="N40" s="50">
         <f>D40*250</f>
-        <v>76000</v>
+        <v>478250</v>
       </c>
       <c r="O40" s="53">
         <f t="shared" si="0"/>
-        <v>12.380281690140846</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>14.975748262960984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>3817</v>
+        <v>69372</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>145</v>
+      <c r="D41" s="1">
+        <v>4920</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1">
-        <v>2266</v>
-      </c>
-      <c r="G41" s="2">
-        <v>905</v>
+        <v>57183</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5419</v>
       </c>
       <c r="H41" s="2">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="I41" s="1">
-        <v>105224</v>
+        <v>373133</v>
       </c>
       <c r="J41" s="1">
-        <v>24948</v>
+        <v>29146</v>
       </c>
       <c r="K41" s="44"/>
       <c r="L41" s="51">
         <f>IFERROR(B41/I41,0)</f>
-        <v>3.627499429787881E-2</v>
+        <v>0.18591762186673386</v>
       </c>
       <c r="M41" s="52">
         <f>IFERROR(H41/G41,0)</f>
-        <v>3.7569060773480663E-2</v>
+        <v>7.0861782616718952E-2</v>
       </c>
       <c r="N41" s="50">
         <f>D41*250</f>
-        <v>36250</v>
+        <v>1230000</v>
       </c>
       <c r="O41" s="53">
         <f t="shared" si="0"/>
-        <v>8.4969871626932143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1">
-        <v>69372</v>
+        <v>16.730496453900709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2">
+        <v>479</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="1">
-        <v>4920</v>
+      <c r="D42" s="2">
+        <v>16</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="1">
-        <v>57183</v>
-      </c>
-      <c r="G42" s="1">
-        <v>5419</v>
+      <c r="F42" s="2">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2">
+        <v>448</v>
       </c>
       <c r="H42" s="2">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1">
-        <v>373133</v>
+        <v>30524</v>
       </c>
       <c r="J42" s="1">
-        <v>29146</v>
+        <v>28560</v>
       </c>
       <c r="K42" s="44"/>
       <c r="L42" s="51">
         <f>IFERROR(B42/I42,0)</f>
-        <v>0.18591762186673386</v>
+        <v>1.569256978115581E-2</v>
       </c>
       <c r="M42" s="52">
         <f>IFERROR(H42/G42,0)</f>
-        <v>7.0861782616718952E-2</v>
+        <v>3.3482142857142856E-2</v>
       </c>
       <c r="N42" s="50">
         <f>D42*250</f>
-        <v>1230000</v>
+        <v>4000</v>
       </c>
       <c r="O42" s="53">
         <f t="shared" si="0"/>
-        <v>16.730496453900709</v>
+        <v>7.3507306889352817</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
-        <v>2913</v>
+        <v>34137</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>126</v>
+      <c r="D43" s="1">
+        <v>1099</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1">
-        <v>1937</v>
-      </c>
-      <c r="G43" s="2">
-        <v>860</v>
+        <v>28767</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3999</v>
       </c>
       <c r="H43" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="I43" s="1">
-        <v>13022</v>
+        <v>241957</v>
       </c>
       <c r="J43" s="1">
-        <v>3845</v>
+        <v>28347</v>
       </c>
       <c r="K43" s="43"/>
       <c r="L43" s="51">
         <f>IFERROR(B43/I43,0)</f>
-        <v>0.22369835662724619</v>
+        <v>0.14108705265811694</v>
       </c>
       <c r="M43" s="52">
         <f>IFERROR(H43/G43,0)</f>
-        <v>4.3023255813953491E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="N43" s="50">
         <f>D43*250</f>
-        <v>31500</v>
+        <v>274750</v>
       </c>
       <c r="O43" s="53">
         <f t="shared" si="0"/>
-        <v>9.8135942327497432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.0484518264639542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
-        <v>13571</v>
+        <v>21220</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <v>556</v>
+        <v>745</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1">
-        <v>12129</v>
+        <v>8838</v>
       </c>
       <c r="G44" s="1">
-        <v>12811</v>
+        <v>2023</v>
       </c>
       <c r="H44" s="2">
-        <v>525</v>
+        <v>71</v>
       </c>
       <c r="I44" s="1">
-        <v>123367</v>
+        <v>290645</v>
       </c>
       <c r="J44" s="1">
-        <v>116454</v>
-      </c>
-      <c r="K44" s="43"/>
+        <v>27712</v>
+      </c>
+      <c r="K44" s="44"/>
       <c r="L44" s="51">
         <f>IFERROR(B44/I44,0)</f>
-        <v>0.11000510671411318</v>
+        <v>7.3010029417330424E-2</v>
       </c>
       <c r="M44" s="52">
         <f>IFERROR(H44/G44,0)</f>
-        <v>4.0980407462337054E-2</v>
+        <v>3.5096391497775582E-2</v>
       </c>
       <c r="N44" s="50">
         <f>D44*250</f>
-        <v>139000</v>
+        <v>186250</v>
       </c>
       <c r="O44" s="53">
         <f t="shared" si="0"/>
-        <v>9.2424287082749981</v>
+        <v>7.7770970782280866</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>25</v>
+      <c r="A45" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>9379</v>
+        <v>53507</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>416</v>
+      <c r="D45" s="1">
+        <v>1486</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1">
-        <v>2920</v>
+        <v>20236</v>
       </c>
       <c r="G45" s="1">
-        <v>1822</v>
+        <v>1845</v>
       </c>
       <c r="H45" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I45" s="1">
-        <v>138238</v>
+        <v>800433</v>
       </c>
       <c r="J45" s="1">
-        <v>26849</v>
-      </c>
-      <c r="K45" s="43"/>
+        <v>27605</v>
+      </c>
+      <c r="K45" s="44"/>
       <c r="L45" s="51">
         <f>IFERROR(B45/I45,0)</f>
-        <v>6.7846757042202582E-2</v>
+        <v>6.6847568753412218E-2</v>
       </c>
       <c r="M45" s="52">
         <f>IFERROR(H45/G45,0)</f>
-        <v>4.4456641053787049E-2</v>
+        <v>2.7642276422764227E-2</v>
       </c>
       <c r="N45" s="50">
         <f>D45*250</f>
-        <v>104000</v>
+        <v>371500</v>
       </c>
       <c r="O45" s="53">
         <f t="shared" si="0"/>
-        <v>10.088602196396204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.9430168015399856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
-        <v>4250</v>
+        <v>9379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1">
-        <v>1057</v>
+        <v>2920</v>
       </c>
       <c r="G46" s="1">
-        <v>4804</v>
+        <v>1822</v>
       </c>
       <c r="H46" s="2">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I46" s="1">
-        <v>31301</v>
+        <v>138238</v>
       </c>
       <c r="J46" s="1">
-        <v>35382</v>
-      </c>
-      <c r="K46" s="44"/>
+        <v>26849</v>
+      </c>
+      <c r="K46" s="43"/>
       <c r="L46" s="51">
         <f>IFERROR(B46/I46,0)</f>
-        <v>0.13577840963547491</v>
+        <v>6.7846757042202582E-2</v>
       </c>
       <c r="M46" s="52">
         <f>IFERROR(H46/G46,0)</f>
-        <v>1.1240632805995004E-2</v>
+        <v>4.4456641053787049E-2</v>
       </c>
       <c r="N46" s="50">
         <f>D46*250</f>
-        <v>12000</v>
+        <v>104000</v>
       </c>
       <c r="O46" s="53">
         <f t="shared" si="0"/>
-        <v>1.8235294117647058</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>10.088602196396204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="B47" s="1">
-        <v>18961</v>
+        <v>30212</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>313</v>
+      <c r="D47" s="1">
+        <v>1840</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1">
-        <v>6865</v>
+        <v>23409</v>
       </c>
       <c r="G47" s="1">
-        <v>2776</v>
+        <v>2585</v>
       </c>
       <c r="H47" s="2">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="I47" s="1">
-        <v>360583</v>
+        <v>309564</v>
       </c>
       <c r="J47" s="1">
-        <v>52800</v>
+        <v>26483</v>
       </c>
       <c r="K47" s="44"/>
       <c r="L47" s="51">
         <f>IFERROR(B47/I47,0)</f>
-        <v>5.2584287112814522E-2</v>
+        <v>9.7595327622074915E-2</v>
       </c>
       <c r="M47" s="52">
         <f>IFERROR(H47/G47,0)</f>
-        <v>1.6570605187319884E-2</v>
+        <v>6.0735009671179882E-2</v>
       </c>
       <c r="N47" s="50">
         <f>D47*250</f>
-        <v>78250</v>
+        <v>460000</v>
       </c>
       <c r="O47" s="53">
         <f t="shared" si="0"/>
-        <v>3.1268920415589894</v>
+        <v>14.225738117304383</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="46" t="s">
-        <v>15</v>
+      <c r="A48" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="1">
-        <v>53507</v>
+        <v>11655</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="1">
-        <v>1486</v>
+      <c r="D48" s="2">
+        <v>672</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1">
-        <v>20236</v>
+        <v>8018</v>
       </c>
       <c r="G48" s="1">
-        <v>1845</v>
+        <v>1899</v>
       </c>
       <c r="H48" s="2">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I48" s="1">
-        <v>800433</v>
+        <v>161984</v>
       </c>
       <c r="J48" s="1">
-        <v>27605</v>
-      </c>
-      <c r="K48" s="44"/>
+        <v>26393</v>
+      </c>
+      <c r="K48" s="43"/>
       <c r="L48" s="51">
         <f>IFERROR(B48/I48,0)</f>
-        <v>6.6847568753412218E-2</v>
+        <v>7.195155077044646E-2</v>
       </c>
       <c r="M48" s="52">
         <f>IFERROR(H48/G48,0)</f>
-        <v>2.7642276422764227E-2</v>
+        <v>5.7398630858346497E-2</v>
       </c>
       <c r="N48" s="50">
         <f>D48*250</f>
-        <v>371500</v>
+        <v>168000</v>
       </c>
       <c r="O48" s="53">
         <f t="shared" si="0"/>
-        <v>5.9430168015399856</v>
+        <v>13.414414414414415</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3817</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2">
-        <v>2</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F49" s="1">
+        <v>2266</v>
+      </c>
+      <c r="G49" s="2">
+        <v>905</v>
+      </c>
+      <c r="H49" s="2">
+        <v>34</v>
+      </c>
       <c r="I49" s="1">
-        <v>1384</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>105224</v>
+      </c>
+      <c r="J49" s="1">
+        <v>24948</v>
+      </c>
       <c r="K49" s="44"/>
       <c r="L49" s="51">
         <f>IFERROR(B49/I49,0)</f>
-        <v>4.9855491329479772E-2</v>
+        <v>3.627499429787881E-2</v>
       </c>
       <c r="M49" s="52">
         <f>IFERROR(H49/G49,0)</f>
-        <v>0</v>
+        <v>3.7569060773480663E-2</v>
       </c>
       <c r="N49" s="50">
         <f>D49*250</f>
-        <v>1500</v>
+        <v>36250</v>
       </c>
       <c r="O49" s="53">
         <f t="shared" si="0"/>
-        <v>20.739130434782609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.4969871626932143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1">
-        <v>7874</v>
+        <v>8673</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1">
-        <v>3186</v>
+        <v>5614</v>
       </c>
       <c r="G50" s="1">
-        <v>2456</v>
+        <v>2977</v>
       </c>
       <c r="H50" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I50" s="1">
-        <v>182874</v>
+        <v>71203</v>
       </c>
       <c r="J50" s="1">
-        <v>57042</v>
-      </c>
-      <c r="K50" s="44"/>
+        <v>24441</v>
+      </c>
+      <c r="K50" s="43"/>
       <c r="L50" s="51">
         <f>IFERROR(B50/I50,0)</f>
-        <v>4.3056968185745378E-2</v>
+        <v>0.12180666544948948</v>
       </c>
       <c r="M50" s="52">
         <f>IFERROR(H50/G50,0)</f>
-        <v>1.1807817589576547E-2</v>
+        <v>2.3513604299630501E-2</v>
       </c>
       <c r="N50" s="50">
         <f>D50*250</f>
-        <v>23000</v>
+        <v>51000</v>
       </c>
       <c r="O50" s="53">
         <f t="shared" si="0"/>
-        <v>1.921005842011684</v>
+        <v>4.8803182289865097</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2">
-        <v>950</v>
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>23191</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>54</v>
+      <c r="D51" s="1">
+        <v>1310</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2">
-        <v>69</v>
+      <c r="F51" s="1">
+        <v>20390</v>
       </c>
       <c r="G51" s="1">
-        <v>1522</v>
+        <v>4027</v>
       </c>
       <c r="H51" s="2">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="I51" s="1">
-        <v>25701</v>
+        <v>139937</v>
       </c>
       <c r="J51" s="1">
-        <v>41188</v>
+        <v>24300</v>
       </c>
       <c r="K51" s="43"/>
       <c r="L51" s="51">
         <f>IFERROR(B51/I51,0)</f>
-        <v>3.6963542274619662E-2</v>
+        <v>0.16572457605922666</v>
       </c>
       <c r="M51" s="52">
         <f>IFERROR(H51/G51,0)</f>
-        <v>5.7161629434954009E-2</v>
+        <v>5.6369505835609637E-2</v>
       </c>
       <c r="N51" s="50">
         <f>D51*250</f>
-        <v>13500</v>
+        <v>327500</v>
       </c>
       <c r="O51" s="53">
         <f t="shared" si="0"/>
-        <v>13.210526315789474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.121857617179078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
-        <v>34137</v>
+        <v>2534</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="1">
-        <v>1099</v>
+      <c r="D52" s="2">
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1">
-        <v>28767</v>
+        <v>1078</v>
       </c>
       <c r="G52" s="1">
-        <v>3999</v>
+        <v>1418</v>
       </c>
       <c r="H52" s="2">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I52" s="1">
-        <v>241957</v>
+        <v>39362</v>
       </c>
       <c r="J52" s="1">
-        <v>28347</v>
-      </c>
-      <c r="K52" s="43"/>
+        <v>22026</v>
+      </c>
+      <c r="K52" s="44"/>
       <c r="L52" s="51">
         <f>IFERROR(B52/I52,0)</f>
-        <v>0.14108705265811694</v>
+        <v>6.4376810121436923E-2</v>
       </c>
       <c r="M52" s="52">
         <f>IFERROR(H52/G52,0)</f>
-        <v>3.2258064516129031E-2</v>
+        <v>3.0324400564174896E-2</v>
       </c>
       <c r="N52" s="50">
         <f>D52*250</f>
-        <v>274750</v>
+        <v>19250</v>
       </c>
       <c r="O52" s="53">
         <f t="shared" si="0"/>
-        <v>7.0484518264639542</v>
+        <v>6.596685082872928</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="46" t="s">
-        <v>9</v>
+      <c r="A53" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B53" s="1">
-        <v>20041</v>
-      </c>
-      <c r="C53" s="55">
-        <v>15</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1075</v>
-      </c>
-      <c r="E53" s="56">
-        <v>1</v>
-      </c>
+        <v>2913</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>126</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="1">
-        <v>13679</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2632</v>
+        <v>1937</v>
+      </c>
+      <c r="G53" s="2">
+        <v>860</v>
       </c>
       <c r="H53" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="I53" s="1">
-        <v>298751</v>
+        <v>13022</v>
       </c>
       <c r="J53" s="1">
-        <v>39232</v>
-      </c>
-      <c r="K53" s="44"/>
+        <v>3845</v>
+      </c>
+      <c r="K53" s="43"/>
       <c r="L53" s="51">
         <f>IFERROR(B53/I53,0)</f>
-        <v>6.7082620643947641E-2</v>
+        <v>0.22369835662724619</v>
       </c>
       <c r="M53" s="52">
         <f>IFERROR(H53/G53,0)</f>
-        <v>5.3571428571428568E-2</v>
+        <v>4.3023255813953491E-2</v>
       </c>
       <c r="N53" s="50">
         <f>D53*250</f>
-        <v>268750</v>
+        <v>31500</v>
       </c>
       <c r="O53" s="53">
         <f t="shared" si="0"/>
-        <v>12.410009480564842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.8135942327497432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1603</v>
+        <v>66</v>
+      </c>
+      <c r="B54" s="2">
+        <v>69</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
-        <v>555</v>
-      </c>
-      <c r="G54" s="2">
-        <v>894</v>
-      </c>
-      <c r="H54" s="2">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>84319</v>
-      </c>
-      <c r="J54" s="1">
-        <v>47049</v>
-      </c>
-      <c r="K54" s="43"/>
+        <v>1384</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="44"/>
       <c r="L54" s="51">
         <f>IFERROR(B54/I54,0)</f>
-        <v>1.9011136280079222E-2</v>
+        <v>4.9855491329479772E-2</v>
       </c>
       <c r="M54" s="52">
         <f>IFERROR(H54/G54,0)</f>
-        <v>4.4742729306487698E-2</v>
+        <v>0</v>
       </c>
       <c r="N54" s="50">
         <f>D54*250</f>
-        <v>17750</v>
+        <v>1500</v>
       </c>
       <c r="O54" s="53">
         <f t="shared" si="0"/>
-        <v>10.072988147223954</v>
+        <v>20.739130434782609</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>13885</v>
+        <v>64</v>
+      </c>
+      <c r="B55" s="2">
+        <v>165</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="1">
-        <v>5670</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2385</v>
-      </c>
-      <c r="H55" s="2">
-        <v>84</v>
-      </c>
+      <c r="F55" s="2">
+        <v>35</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>177123</v>
-      </c>
-      <c r="J55" s="1">
-        <v>30421</v>
-      </c>
+        <v>4920</v>
+      </c>
+      <c r="J55" s="2"/>
       <c r="K55" s="44"/>
       <c r="L55" s="51">
         <f>IFERROR(B55/I55,0)</f>
-        <v>7.8391851989860151E-2</v>
+        <v>3.3536585365853661E-2</v>
       </c>
       <c r="M55" s="52">
         <f>IFERROR(H55/G55,0)</f>
-        <v>3.5220125786163521E-2</v>
+        <v>0</v>
       </c>
       <c r="N55" s="50">
         <f>D55*250</f>
-        <v>121750</v>
+        <v>1250</v>
       </c>
       <c r="O55" s="53">
         <f t="shared" si="0"/>
-        <v>7.7684551674468851</v>
+        <v>6.5757575757575761</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B56" s="15">
-        <v>801</v>
+        <v>22</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15">
-        <v>243</v>
-      </c>
-      <c r="G56" s="38">
-        <v>1384</v>
-      </c>
-      <c r="H56" s="15">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="38">
-        <v>18840</v>
-      </c>
-      <c r="J56" s="38">
-        <v>32552</v>
-      </c>
-      <c r="K56" s="59"/>
+        <v>3817</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="60"/>
       <c r="L56" s="51">
         <f>IFERROR(B56/I56,0)</f>
-        <v>4.2515923566878978E-2</v>
+        <v>5.763688760806916E-3</v>
       </c>
       <c r="M56" s="52">
         <f>IFERROR(H56/G56,0)</f>
-        <v>1.5173410404624277E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="50">
         <f>D56*250</f>
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="O56" s="53">
         <f t="shared" si="0"/>
-        <v>2.7453183520599249</v>
+        <v>21.727272727272727</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7094,7 +7097,7 @@
   </sheetData>
   <autoFilter ref="A1:N56" xr:uid="{0FFC770D-E812-4BB2-BFE4-43D655F753EE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N57">
-      <sortCondition ref="A1:A56"/>
+      <sortCondition descending="1" ref="J1:J56"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:L56">
@@ -7118,16 +7121,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{DE23B909-63BC-41AD-9922-318914B09A76}"/>
-    <hyperlink ref="A33" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{B6DA2A1D-BC94-4ECC-BBB2-DF4250853C7E}"/>
-    <hyperlink ref="A24" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{049514E9-31E2-4DAF-9A34-126420DEBE37}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{2BB8B4F1-025A-41A1-99D1-479D973D02AF}"/>
-    <hyperlink ref="A42" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{A1F1A90F-379B-4592-BAA0-EDE3BA849C8D}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{555227A2-0901-4768-BBE0-FEC24BDE53DA}"/>
-    <hyperlink ref="A11" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{078405D4-2B28-40A6-93B4-79637FE2139D}"/>
-    <hyperlink ref="A21" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{8D58FCD2-1EC2-4118-A6C0-BC094E4F87FE}"/>
-    <hyperlink ref="A39" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{84D0ACDA-6AA1-4A7B-93CF-F3F619D70B94}"/>
-    <hyperlink ref="A53" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{24EFE5F4-2DAE-43A7-B06C-9AD94E80325D}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{DE23B909-63BC-41AD-9922-318914B09A76}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{B6DA2A1D-BC94-4ECC-BBB2-DF4250853C7E}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{049514E9-31E2-4DAF-9A34-126420DEBE37}"/>
+    <hyperlink ref="A28" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{2BB8B4F1-025A-41A1-99D1-479D973D02AF}"/>
+    <hyperlink ref="A41" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{A1F1A90F-379B-4592-BAA0-EDE3BA849C8D}"/>
+    <hyperlink ref="A45" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{555227A2-0901-4768-BBE0-FEC24BDE53DA}"/>
+    <hyperlink ref="A24" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{078405D4-2B28-40A6-93B4-79637FE2139D}"/>
+    <hyperlink ref="A7" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{8D58FCD2-1EC2-4118-A6C0-BC094E4F87FE}"/>
+    <hyperlink ref="A47" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{84D0ACDA-6AA1-4A7B-93CF-F3F619D70B94}"/>
+    <hyperlink ref="A22" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{24EFE5F4-2DAE-43A7-B06C-9AD94E80325D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -7647,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
